--- a/整合結果/EPU匯出結果/2025-06-13/2025-06-13_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-13/2025-06-13_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$113:$A$114</f>
+              <f>'Sheet1'!$A$116:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$113:$B$114</f>
+              <f>'Sheet1'!$B$116:$B$117</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>112</row>
+      <row>115</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4027,42 +4027,138 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-06-13_0730_自由時報_財經_他出售山坡地險被追繳贈與稅 這樣做終於解套.txt</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-06-13_0847_自由時報_財經_黃金上漲觸一週高點 但專家說有「阻礙」？.txt</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>美元、經濟</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>CPI、Fed、降息、聯準會</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>地緣政治、政治風險、緊張</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>82</v>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-06-13_2138_自由時報_財經_東台不配發股利 在手訂單30億元.txt</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>景氣、經濟</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>不振、放緩</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>24.77%</t>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
